--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kafer\OneDrive\Aliens Pulse Rifle\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b639035da463d3b/Documents/GitHub/M41A-Pulse-Rifle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9987951-76E8-49B8-A5E8-441EFC4E4DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C9987951-76E8-49B8-A5E8-441EFC4E4DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC8C5E70-78DF-4998-BE3B-09988396634E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A27861B-01CA-4BCE-8CB0-1151D2BAB263}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Springs</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>7 segment display</t>
-  </si>
-  <si>
     <t>470 ohm resistors (10 hole static counter)</t>
   </si>
   <si>
@@ -238,6 +235,21 @@
   </si>
   <si>
     <t xml:space="preserve">3mm x 18mm </t>
+  </si>
+  <si>
+    <t>https://au.rs-online.com/web/p/battery-contacts/3247325</t>
+  </si>
+  <si>
+    <t>https://au.rs-online.com/web/p/battery-contacts/3247303</t>
+  </si>
+  <si>
+    <t>https://au.rs-online.com/web/p/battery-contacts/1756069</t>
+  </si>
+  <si>
+    <t>7 segment display   ***common cathode</t>
+  </si>
+  <si>
+    <t>https://www.jaycar.com.au/fnd500-lts543r-s505rwb-common-cathode-7-segment-display/p/ZD1855?pos=3&amp;queryId=2aa8d4a1f1fcaf96f545f8213835e977&amp;sort=relevance</t>
   </si>
 </sst>
 </file>
@@ -616,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D0A64B-0EE1-4B3D-9FD8-A989A37B0D4D}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +637,7 @@
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="116.42578125" customWidth="1"/>
+    <col min="4" max="4" width="162" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
@@ -650,15 +662,15 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,15 +681,15 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,38 +722,38 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,188 +761,188 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>4</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="5">
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="5">
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="5">
         <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="5">
         <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C33" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="5">
         <v>2</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="5">
         <v>2</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="5">
         <v>3</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -950,60 +962,72 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B49" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>18</v>
-      </c>
-      <c r="B55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>19</v>
       </c>
       <c r="B57" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" s="5">
         <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
